--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>569413.2020179558</v>
+        <v>572732.7482908607</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16.92363275912309</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.3034809802377</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>8.172609644471923</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,73 +1367,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.0646822814658</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>18.37270108173896</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1604,17 +1604,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -1622,49 +1622,49 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>202.2946864288972</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.042753987605505</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>98.10479885422592</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2318,67 +2318,67 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>29.87434464870864</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34.85384537335717</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>171.7885946980609</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>25.75153276020199</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,25 +2834,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>91.27710770251065</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,20 +3029,20 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="G32" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,22 +3111,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>13.43063034584246</v>
       </c>
       <c r="I33" t="n">
-        <v>20.14226381560845</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,19 +3354,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>40.67087089223146</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>121.8839946188103</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,23 +3500,23 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.27151018080328</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>110.4285199878827</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.84004947482878</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,31 +3974,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>68.78467314474098</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4331,49 +4331,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C3" t="n">
-        <v>480.4386961837225</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D3" t="n">
-        <v>331.5042865224712</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E3" t="n">
-        <v>172.2668315170157</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="F3" t="n">
-        <v>172.2668315170157</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>33.53600609963121</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4410,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4574,43 +4574,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
         <v>16.44142755506243</v>
@@ -4653,43 +4653,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W6" t="n">
-        <v>774.2973583780361</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X6" t="n">
-        <v>566.7035761171468</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C8" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D8" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E8" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
         <v>28.51141680214578</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4832,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>645.6008794760112</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>471.1478501948842</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,16 +4887,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>813.8162164960793</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5042,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5066,25 +5066,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.4951893506917</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>107.4951893506917</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D12" t="n">
-        <v>107.4951893506917</v>
+        <v>238.668476211275</v>
       </c>
       <c r="E12" t="n">
-        <v>107.4951893506917</v>
+        <v>238.668476211275</v>
       </c>
       <c r="F12" t="n">
-        <v>107.4951893506917</v>
+        <v>238.668476211275</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4951893506917</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5145,25 +5145,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>238.8736563016672</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,10 +5282,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5510,7 +5510,7 @@
         <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5701,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>579.9706376176423</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>420.7331826121868</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>274.1986246390718</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>135.4677992216873</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09866362926662</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>864.9613990922262</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>864.9613990922262</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>864.9613990922262</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>636.7377808286153</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
@@ -5975,10 +5975,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>452.9407326573341</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="C24" t="n">
-        <v>278.487703376207</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="D24" t="n">
-        <v>278.487703376207</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="E24" t="n">
-        <v>278.487703376207</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="F24" t="n">
-        <v>248.3115976704407</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>660.701031422288</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>660.701031422288</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y24" t="n">
-        <v>452.9407326573341</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6172,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8157010833278</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6336,19 +6336,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>617.1159779329607</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>617.1159779329607</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>373.6672012888606</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="X27" t="n">
-        <v>165.8157010833278</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.8157010833278</v>
+        <v>529.4760534768332</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.81530782185143</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="C30" t="n">
-        <v>83.81530782185143</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D30" t="n">
-        <v>83.81530782185143</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>83.81530782185143</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>83.81530782185143</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X30" t="n">
-        <v>83.81530782185143</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.81530782185143</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6643,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F32" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="C32" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.2836868729568</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C33" t="n">
-        <v>487.2836868729568</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="D33" t="n">
-        <v>338.3492772117056</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="E33" t="n">
-        <v>179.1118222062501</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="F33" t="n">
-        <v>179.1118222062501</v>
+        <v>172.3323944590117</v>
       </c>
       <c r="G33" t="n">
-        <v>40.38099678886556</v>
+        <v>33.60156904162719</v>
       </c>
       <c r="H33" t="n">
-        <v>40.38099678886556</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.8418184905681</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3887892094411</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D36" t="n">
-        <v>472.4543795481899</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>313.2169245427344</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>313.2169245427344</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>174.4860991253499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>61.1169635329292</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>612.718391167419</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>612.718391167419</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7120,25 +7120,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7357,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7418,43 +7418,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7497,13 +7497,13 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7518,22 +7518,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>204.697218590109</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>204.697218590109</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.6567645751305</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7588,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7731,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7758,19 +7758,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8222,16 +8222,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,7 +8301,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,10 +8544,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>164.1205091169155</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8930,13 +8930,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10431,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,16 +11145,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>269.2526134200356</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,13 +11306,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,10 +11379,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11391,10 +11391,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>360.7700698467189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22604,10 +22604,10 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,25 +22623,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>30.37225583034704</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>95.31181147737337</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22680,13 +22680,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>206.1927629589274</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>85.4677721317848</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>204.3987039795849</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>54.02502153750649</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,19 +23097,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>113.4971061691875</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>197.5100861328324</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23306,7 +23306,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.46850136840155</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,16 +23349,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>118.9708160814717</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,10 +23385,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,13 +23510,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>49.93994077416525</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,7 +23552,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23750,10 +23750,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>8.181203141508689</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,19 +23862,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23941,10 +23941,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.35387886380957</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.053035298417214</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,7 +24102,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="23">
@@ -24206,22 +24206,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,16 +24257,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>115.1948677446752</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>77.38159886313929</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,7 +24528,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,16 +24576,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>54.15278738291391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>225.9434504007176</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,25 +24722,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24759,16 +24759,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>81.43139128580509</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>25.50780978689276</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24883,10 +24883,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24971,16 +24971,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,22 +24999,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>98.804813890654</v>
       </c>
       <c r="I33" t="n">
-        <v>69.25436903580663</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25172,10 +25172,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,19 +25242,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>48.72576195918362</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,10 +25287,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>110.916592530615</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,22 +25442,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,16 +25482,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>68.07200698240736</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,22 +25518,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>122.3720671615425</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,10 +25631,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,10 +25682,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>122.8565834318405</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>185.8426463024756</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>227.1578098439735</v>
       </c>
     </row>
     <row r="45">
@@ -25947,7 +25947,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>78.66039241989778</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>44.92126469973746</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449609.2792295555</v>
+        <v>449609.2792295556</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449609.2792295555</v>
+        <v>449609.2792295554</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449609.2792295555</v>
+        <v>449609.2792295554</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102542.4671927055</v>
+        <v>102542.4671927056</v>
       </c>
       <c r="C2" t="n">
         <v>102542.4671927055</v>
@@ -26329,7 +26329,7 @@
         <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
@@ -26338,13 +26338,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12995.82730865134</v>
+        <v>-12608.18588976496</v>
       </c>
       <c r="C6" t="n">
-        <v>55877.9292730385</v>
+        <v>56265.57069192487</v>
       </c>
       <c r="D6" t="n">
-        <v>55877.92927303851</v>
+        <v>56265.57069192487</v>
       </c>
       <c r="E6" t="n">
-        <v>89505.52927303848</v>
+        <v>89893.17069192487</v>
       </c>
       <c r="F6" t="n">
-        <v>89505.52927303848</v>
+        <v>89893.17069192484</v>
       </c>
       <c r="G6" t="n">
-        <v>83033.61973729004</v>
+        <v>83442.19290973332</v>
       </c>
       <c r="H6" t="n">
-        <v>92762.66271145712</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="I6" t="n">
-        <v>92762.66271145712</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="J6" t="n">
-        <v>38990.15182124769</v>
+        <v>39398.72499369098</v>
       </c>
       <c r="K6" t="n">
-        <v>92762.66271145713</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="L6" t="n">
-        <v>92762.66271145709</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="M6" t="n">
-        <v>92762.6627114571</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="N6" t="n">
-        <v>92762.66271145707</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="O6" t="n">
-        <v>89505.52927303848</v>
+        <v>89893.17069192485</v>
       </c>
       <c r="P6" t="n">
-        <v>89505.52927303851</v>
+        <v>89893.17069192487</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34714,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34942,16 +34942,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,10 +35264,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>21.52426467247106</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,13 +38026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38111,10 +38111,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572732.7482908607</v>
+        <v>573516.8942288894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -665,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
@@ -896,7 +898,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,64 +1369,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>18.37270108173896</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>86.21539897205298</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.69006202085835</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>186.7570511884754</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>190.3453970742847</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>55.57566235103572</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,58 +2092,58 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>111.7337294019974</v>
       </c>
       <c r="I21" t="n">
-        <v>2.042753987605505</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>38.3816197818592</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>34.85384537335717</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>25.75153276020199</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,58 +2712,58 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>91.27710770251065</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3029,73 +3031,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>13.43063034584246</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>54.05803596719263</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,55 +3201,55 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I35" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3348,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,13 +3404,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>121.8839946188103</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,61 +3517,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>69.27151018080328</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>114.5739677075318</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>47.02492433367362</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>68.78467314474098</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4331,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4361,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4413,10 +4415,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4443,16 +4445,16 @@
         <v>339.8907214957869</v>
       </c>
       <c r="V3" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4674,19 +4676,19 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>431.628992076841</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>224.0352098159517</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V6" t="n">
-        <v>224.0352098159517</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="X6" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="Y6" t="n">
         <v>16.44142755506243</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4948,19 +4950,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5066,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5121,19 +5123,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U12" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5227,22 +5229,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,13 +5281,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5312,16 +5314,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5358,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>807.2329312674061</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>633.815586718075</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>431.628992076841</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5467,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5604,13 +5606,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>728.9050472788936</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C21" t="n">
-        <v>728.9050472788936</v>
+        <v>279.432186667424</v>
       </c>
       <c r="D21" t="n">
-        <v>579.9706376176423</v>
+        <v>279.432186667424</v>
       </c>
       <c r="E21" t="n">
-        <v>420.7331826121868</v>
+        <v>279.432186667424</v>
       </c>
       <c r="F21" t="n">
-        <v>274.1986246390718</v>
+        <v>132.897628694309</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4677992216873</v>
+        <v>132.897628694309</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09866362926662</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>728.9050472788936</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y21" t="n">
-        <v>728.9050472788936</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>145.5408093233744</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C24" t="n">
-        <v>145.5408093233744</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D24" t="n">
-        <v>145.5408093233744</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5408093233744</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>353.3011080883284</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.5408093233744</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="25">
@@ -6184,7 +6186,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C26" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D26" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E26" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>529.4760534768332</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>529.4760534768332</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>529.4760534768332</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>370.2385984713777</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>555.4877027295624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>529.4760534768332</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>529.4760534768332</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>529.4760534768332</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>417.2522547781879</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>417.2522547781879</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6739,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>318.8669524321267</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C33" t="n">
-        <v>318.8669524321267</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D33" t="n">
-        <v>318.8669524321267</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>318.8669524321267</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>172.3323944590117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>33.60156904162719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6815,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>526.7184526376595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>526.7184526376595</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>318.8669524321267</v>
+        <v>707.2664841348642</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.8669524321267</v>
+        <v>499.5061853699102</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>40.6788758079141</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D35" t="n">
-        <v>40.6788758079141</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>40.6788758079141</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>40.6788758079141</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
-        <v>40.6788758079141</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
         <v>31.35113235729608</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>40.6788758079141</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.6788758079141</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>612.718391167419</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>612.718391167419</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7050,16 +7052,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>612.718391167419</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>612.718391167419</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>612.718391167419</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>612.718391167419</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7196,25 +7198,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="U38" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="V38" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="W38" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
         <v>262.7299197543128</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>292.9211302503287</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C39" t="n">
-        <v>292.9211302503287</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D39" t="n">
-        <v>292.9211302503287</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E39" t="n">
-        <v>292.9211302503287</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>292.9211302503287</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>292.9211302503287</v>
+        <v>417.9156620931329</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7444,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7602,7 @@
         <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7679,19 +7681,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7761,16 +7763,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>265.6729592778915</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8784,7 +8786,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,7 +8938,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,10 +9728,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>158.4546847345297</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22601,10 +22603,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>30.37225583034704</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22683,7 +22685,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>118.1036305863884</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
@@ -22784,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>206.1927629589274</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22838,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22914,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>85.4677721317848</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>90.98573921426753</v>
       </c>
     </row>
     <row r="7">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23188,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23306,13 +23308,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>118.9708160814717</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>85.46777213178484</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23552,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.46777213178478</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>13.40767750634618</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23750,7 +23752,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>20.13049249612121</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>170.3657197299391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23941,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24051,22 +24053,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.5017148344990545</v>
       </c>
       <c r="I21" t="n">
-        <v>87.35387886380957</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>134.3268792064565</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>77.38159886313929</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,25 +24448,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>322.4562579625502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>225.9434504007176</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>81.43139128580509</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24917,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>98.804813890654</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>151.7149492362848</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,10 +25171,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I35" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25236,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>128.5926628167762</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25290,13 +25292,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>110.916592530615</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25436,28 +25438,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25479,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>68.07200698240736</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>91.10872806977258</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>80.31623474114394</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>122.8565834318405</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901544</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.1578098439735</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25947,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>78.66039241989778</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26001,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449609.2792295556</v>
+        <v>449609.2792295555</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449609.2792295554</v>
+        <v>449609.2792295555</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449609.2792295554</v>
+        <v>449609.2792295555</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102542.4671927056</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="C2" t="n">
         <v>102542.4671927055</v>
@@ -26326,10 +26328,10 @@
         <v>102542.4671927055</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
@@ -26344,7 +26346,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12608.18588976496</v>
+        <v>-12608.18588976499</v>
       </c>
       <c r="C6" t="n">
         <v>56265.57069192487</v>
@@ -26528,19 +26530,19 @@
         <v>56265.57069192487</v>
       </c>
       <c r="E6" t="n">
-        <v>89893.17069192487</v>
+        <v>89893.17069192485</v>
       </c>
       <c r="F6" t="n">
-        <v>89893.17069192484</v>
+        <v>89893.17069192485</v>
       </c>
       <c r="G6" t="n">
-        <v>83442.19290973332</v>
+        <v>83442.19290973329</v>
       </c>
       <c r="H6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="I6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="J6" t="n">
         <v>39398.72499369098</v>
@@ -26552,16 +26554,16 @@
         <v>93171.2358839004</v>
       </c>
       <c r="M6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="N6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="O6" t="n">
         <v>89893.17069192485</v>
       </c>
       <c r="P6" t="n">
-        <v>89893.17069192487</v>
+        <v>89893.17069192485</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35504,7 +35506,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35656,7 +35658,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,10 +36448,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>573516.8942288894</v>
+        <v>469284.3959654461</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>205.5178444382804</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>32.85051049726503</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>114.6969565630368</v>
-      </c>
-      <c r="W3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,70 +895,70 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>114.6969565630368</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.172609644471923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,52 +1302,52 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19.20171008547518</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>86.21539897205298</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
@@ -1511,10 +1511,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>205.5178444382804</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7570511884754</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7337294019974</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -2374,19 +2374,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>38.3816197818592</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>66.11861112998599</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2557,70 +2557,70 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>71.01467844038824</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.31110394229523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>21.36726813225071</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>52.42556848774752</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>54.05803596719263</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,14 +3265,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>190.3453970742847</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3435,58 +3435,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>100.3796369526212</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>114.5739677075318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,64 +3663,64 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,28 +3742,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="V42" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="V42" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>159.0801288120801</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>134.2744225672575</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4336,13 +4336,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="X2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="Y2" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="W2" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="X2" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>311.9103951894288</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4415,13 +4415,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4436,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4521,19 +4521,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4570,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4600,19 +4600,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4655,40 +4655,40 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>339.8907214957869</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>132.2969392348976</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X6" t="n">
-        <v>132.2969392348976</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y6" t="n">
         <v>16.44142755506243</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4761,16 +4761,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4807,10 +4807,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4843,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>645.6008794760112</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>471.1478501948842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>322.2134405336329</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
         <v>16.44142755506243</v>
@@ -4889,19 +4889,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>29.03990215807806</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>813.8162164960793</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5065,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X11" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="12">
@@ -5123,43 +5123,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="V12" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="W12" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="V12" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W12" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
         <v>16.44142755506243</v>
@@ -5229,13 +5229,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
         <v>16.44142755506243</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y14" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="X14" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5360,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>358.8410177077111</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>358.8410177077111</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>358.8410177077111</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>358.8410177077111</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5460,13 +5460,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
         <v>16.44142755506243</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5788,16 +5788,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>279.432186667424</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C21" t="n">
-        <v>279.432186667424</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D21" t="n">
-        <v>279.432186667424</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E21" t="n">
-        <v>279.432186667424</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F21" t="n">
-        <v>132.897628694309</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G21" t="n">
-        <v>132.897628694309</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H21" t="n">
         <v>20.03527576299844</v>
@@ -5837,10 +5837,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="22">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>897.2706796217615</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>897.2706796217615</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>897.2706796217615</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
         <v>20.03527576299844</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.84447166430675</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6454,7 +6454,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,10 +6487,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
         <v>749.627473042513</v>
@@ -6499,16 +6499,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,19 +6572,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,22 +6721,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
         <v>749.627473042513</v>
@@ -6745,7 +6745,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>499.5061853699102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6791,13 +6791,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>707.2664841348642</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>499.5061853699102</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H35" t="n">
         <v>31.35113235729608</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
         <v>20.03527576299844</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7262,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.792197863116</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7420,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7444,10 +7444,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
         <v>604.3859801240053</v>
@@ -7456,7 +7456,7 @@
         <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.792197863116</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7523,7 +7523,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
         <v>431.628992076841</v>
@@ -7590,19 +7590,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7675,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>585.2711184400906</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>436.3367087788394</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>277.0992537733839</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
         <v>16.44142755506243</v>
@@ -7845,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7993,7 +7993,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8537,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>244.7225752110828</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,16 +11147,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>142.628815381816</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>154.8597658442563</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>176.4125256339814</v>
@@ -22564,7 +22564,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="3">
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>139.8579884910507</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>118.1036305863884</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22840,13 +22840,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,7 +22922,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>90.98573921426753</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>197.5100861328324</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>350.5293905929939</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>85.46777213178484</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
@@ -23399,10 +23399,10 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>180.7200942177732</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>13.40767750634618</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>334.4055473171627</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>185.9018423672239</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5017148344990545</v>
+        <v>62.92434029420124</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>269.3514637258479</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>134.3268792064565</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>105.5645599738518</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,13 +24344,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117.2220797075721</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>184.4057170712268</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>170.6702810763838</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24812,10 +24812,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>151.7149492362848</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25134,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>149.1294050414824</v>
+        <v>121.2202665134099</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>128.5926628167762</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>254.3034046680618</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>91.10872806977258</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,28 +25630,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>247.7959169296313</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25763,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>44.92126469973746</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>51.78046976818786</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25839,13 +25839,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1127189901544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>195.6029128086029</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>80.31623474114394</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>38.43407642105822</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449609.2792295555</v>
+        <v>449609.2792295556</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449609.2792295555</v>
+        <v>449609.2792295554</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449609.2792295555</v>
+        <v>449609.2792295556</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102542.4671927055</v>
+        <v>102542.4671927056</v>
       </c>
       <c r="C2" t="n">
         <v>102542.4671927055</v>
       </c>
       <c r="D2" t="n">
-        <v>102542.4671927055</v>
+        <v>102542.4671927056</v>
       </c>
       <c r="E2" t="n">
         <v>102542.4671927055</v>
@@ -26349,7 +26349,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>102542.4671927055</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12608.18588976499</v>
+        <v>-25246.34804462546</v>
       </c>
       <c r="C6" t="n">
-        <v>56265.57069192487</v>
+        <v>43627.40853706437</v>
       </c>
       <c r="D6" t="n">
-        <v>56265.57069192487</v>
+        <v>43627.40853706438</v>
       </c>
       <c r="E6" t="n">
-        <v>89893.17069192485</v>
+        <v>77255.00853706435</v>
       </c>
       <c r="F6" t="n">
-        <v>89893.17069192485</v>
+        <v>77255.00853706436</v>
       </c>
       <c r="G6" t="n">
-        <v>83442.19290973329</v>
+        <v>71224.18228969282</v>
       </c>
       <c r="H6" t="n">
-        <v>93171.23588390039</v>
+        <v>80953.2252638599</v>
       </c>
       <c r="I6" t="n">
-        <v>93171.2358839004</v>
+        <v>80953.22526385993</v>
       </c>
       <c r="J6" t="n">
-        <v>39398.72499369098</v>
+        <v>27180.71437365049</v>
       </c>
       <c r="K6" t="n">
-        <v>93171.23588390039</v>
+        <v>80953.22526385992</v>
       </c>
       <c r="L6" t="n">
-        <v>93171.2358839004</v>
+        <v>80953.22526385993</v>
       </c>
       <c r="M6" t="n">
-        <v>93171.23588390039</v>
+        <v>80953.22526385993</v>
       </c>
       <c r="N6" t="n">
-        <v>93171.23588390037</v>
+        <v>80953.22526385996</v>
       </c>
       <c r="O6" t="n">
-        <v>89893.17069192485</v>
+        <v>77255.00853706436</v>
       </c>
       <c r="P6" t="n">
-        <v>89893.17069192485</v>
+        <v>77255.00853706435</v>
       </c>
     </row>
   </sheetData>
@@ -34704,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34713,7 +34713,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O3" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35658,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="N42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>12.72573192223801</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
